--- a/Server/myapp/orders/VAsD7VAriX2CO94m.xlsx
+++ b/Server/myapp/orders/VAsD7VAriX2CO94m.xlsx
@@ -394,7 +394,7 @@
         <v>Quantity</v>
       </c>
       <c r="D5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E5">
         <v>1</v>
